--- a/data_validation/final_report_fuentesabiertas_gpointersintitucional.xlsx
+++ b/data_validation/final_report_fuentesabiertas_gpointersintitucional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\regis\OneDrive\Documents\GitHub\homicides-mx-data\data_validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1749B3B3-4759-4727-9C0E-628BA70946E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD5B543-05D3-440A-B225-4B1F07A145B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66CE0DD4-B689-BC4C-A25B-CD3A37516EF7}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{66CE0DD4-B689-BC4C-A25B-CD3A37516EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="2019_fuentesabiertas" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <t>Entidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Inconsistencia en total y suma por género </t>
+    <t xml:space="preserve">Anomalías en desagregado por género </t>
   </si>
 </sst>
 </file>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89F78E8-6DDB-FB48-A0FF-CC65579E5750}">
   <dimension ref="A1:U232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -736,9 +736,6 @@
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
       <c r="M4" s="31" t="s">
         <v>7</v>
       </c>
@@ -11480,6 +11477,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:S3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="M37:S37"/>
     <mergeCell ref="A201:G201"/>
     <mergeCell ref="M69:S69"/>
     <mergeCell ref="A102:G102"/>
@@ -11488,11 +11490,6 @@
     <mergeCell ref="M135:S135"/>
     <mergeCell ref="A169:G169"/>
     <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A1:S3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="M37:S37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11500,22 +11497,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C2AFA5-DD70-DE40-80FB-4C7B9F2B93F6}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>43483</v>
       </c>
@@ -11523,8 +11530,14 @@
       <c r="C2" s="18">
         <v>43865</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="14">
+        <v>43501</v>
+      </c>
+      <c r="G2" s="18">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>43484</v>
       </c>
@@ -11532,8 +11545,14 @@
       <c r="C3" s="18">
         <v>43866</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="14">
+        <v>43510</v>
+      </c>
+      <c r="G3" s="18">
+        <v>43916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>43485</v>
       </c>
@@ -11541,8 +11560,14 @@
       <c r="C4" s="18">
         <v>43891</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="14">
+        <v>43520</v>
+      </c>
+      <c r="G4" s="18">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>43486</v>
       </c>
@@ -11550,8 +11575,14 @@
       <c r="C5" s="18">
         <v>43916</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="14">
+        <v>43524</v>
+      </c>
+      <c r="G5" s="18">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43494</v>
       </c>
@@ -11559,67 +11590,103 @@
       <c r="C6" s="18">
         <v>43987</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="14">
+        <v>43526</v>
+      </c>
+      <c r="G6" s="18">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>43518</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="14">
+        <v>43532</v>
+      </c>
+      <c r="G7" s="18">
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43524</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="14">
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43533</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="14">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43564</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="14">
+        <v>43564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>43705</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" s="14">
+        <v>43565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>43723</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="14">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>43805</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" s="14">
+        <v>43723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>43830</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" s="14">
+        <v>43736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" s="14">
+        <v>43805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -11638,10 +11705,12 @@
       <c r="A21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data_validation/final_report_fuentesabiertas_gpointersintitucional.xlsx
+++ b/data_validation/final_report_fuentesabiertas_gpointersintitucional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\regis\OneDrive\Documents\GitHub\homicides-mx-data\data_validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/PADeCI/homicides-mx-data/data_validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD5B543-05D3-440A-B225-4B1F07A145B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC5FD66-E1D1-4B4C-AA0D-751C56938DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{66CE0DD4-B689-BC4C-A25B-CD3A37516EF7}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" firstSheet="2" activeTab="2" xr2:uid="{66CE0DD4-B689-BC4C-A25B-CD3A37516EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="2019_fuentesabiertas" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="2019_gpointer" sheetId="5" r:id="rId4"/>
     <sheet name="2020_gpointer" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="32">
   <si>
     <t>January</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t xml:space="preserve">Anomalías en desagregado por género </t>
+  </si>
+  <si>
+    <t>Guanajuato, Salvatierra mal</t>
+  </si>
+  <si>
+    <t>Morelia, mal sumado</t>
+  </si>
+  <si>
+    <t>Listo</t>
   </si>
 </sst>
 </file>
@@ -284,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -314,6 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -653,102 +663,102 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29">
+    <row r="1" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30">
         <v>2019</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-    </row>
-    <row r="4" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+    </row>
+    <row r="2" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+    </row>
+    <row r="4" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="M4" s="31" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="M4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>43466</v>
       </c>
@@ -778,7 +788,7 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43467</v>
       </c>
@@ -808,7 +818,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43468</v>
       </c>
@@ -838,7 +848,7 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>43469</v>
       </c>
@@ -872,7 +882,7 @@
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>43470</v>
       </c>
@@ -902,7 +912,7 @@
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43471</v>
       </c>
@@ -932,7 +942,7 @@
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43472</v>
       </c>
@@ -962,7 +972,7 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>43473</v>
       </c>
@@ -992,7 +1002,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43474</v>
       </c>
@@ -1022,7 +1032,7 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43475</v>
       </c>
@@ -1052,7 +1062,7 @@
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>43476</v>
       </c>
@@ -1082,7 +1092,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>43477</v>
       </c>
@@ -1114,7 +1124,7 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>43478</v>
       </c>
@@ -1144,7 +1154,7 @@
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43479</v>
       </c>
@@ -1174,7 +1184,7 @@
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43480</v>
       </c>
@@ -1204,7 +1214,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>43481</v>
       </c>
@@ -1234,7 +1244,7 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>43482</v>
       </c>
@@ -1264,7 +1274,7 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43483</v>
       </c>
@@ -1294,7 +1304,7 @@
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>43484</v>
       </c>
@@ -1324,7 +1334,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>43485</v>
       </c>
@@ -1354,7 +1364,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>43486</v>
       </c>
@@ -1384,7 +1394,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>43487</v>
       </c>
@@ -1414,7 +1424,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>43488</v>
       </c>
@@ -1442,7 +1452,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>43489</v>
       </c>
@@ -1472,7 +1482,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>43490</v>
       </c>
@@ -1502,7 +1512,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>43491</v>
       </c>
@@ -1532,7 +1542,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>43492</v>
       </c>
@@ -1562,7 +1572,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>43493</v>
       </c>
@@ -1592,7 +1602,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>43494</v>
       </c>
@@ -1622,7 +1632,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>43495</v>
       </c>
@@ -1652,7 +1662,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>43496</v>
       </c>
@@ -1685,7 +1695,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
@@ -1696,29 +1706,29 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
     </row>
-    <row r="38" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="30" t="s">
+    <row r="38" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="M38" s="32" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="M38" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>43497</v>
       </c>
@@ -1747,7 +1757,7 @@
       </c>
       <c r="U39" s="6"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>43498</v>
       </c>
@@ -1777,7 +1787,7 @@
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>43499</v>
       </c>
@@ -1807,7 +1817,7 @@
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>43500</v>
       </c>
@@ -1837,7 +1847,7 @@
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>43501</v>
       </c>
@@ -1867,7 +1877,7 @@
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43502</v>
       </c>
@@ -1897,7 +1907,7 @@
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43503</v>
       </c>
@@ -1927,7 +1937,7 @@
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43504</v>
       </c>
@@ -1957,7 +1967,7 @@
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43505</v>
       </c>
@@ -1987,7 +1997,7 @@
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>43506</v>
       </c>
@@ -2017,7 +2027,7 @@
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>43507</v>
       </c>
@@ -2047,7 +2057,7 @@
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>43508</v>
       </c>
@@ -2077,7 +2087,7 @@
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>43509</v>
       </c>
@@ -2107,7 +2117,7 @@
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>43510</v>
       </c>
@@ -2137,7 +2147,7 @@
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>43511</v>
       </c>
@@ -2167,7 +2177,7 @@
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>43512</v>
       </c>
@@ -2197,7 +2207,7 @@
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>43513</v>
       </c>
@@ -2227,7 +2237,7 @@
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>43514</v>
       </c>
@@ -2257,7 +2267,7 @@
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>43515</v>
       </c>
@@ -2287,7 +2297,7 @@
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>43516</v>
       </c>
@@ -2317,7 +2327,7 @@
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>43517</v>
       </c>
@@ -2347,7 +2357,7 @@
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>43518</v>
       </c>
@@ -2377,7 +2387,7 @@
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>43519</v>
       </c>
@@ -2407,7 +2417,7 @@
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>43520</v>
       </c>
@@ -2437,7 +2447,7 @@
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>43521</v>
       </c>
@@ -2467,7 +2477,7 @@
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>43522</v>
       </c>
@@ -2497,7 +2507,7 @@
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>43523</v>
       </c>
@@ -2527,7 +2537,7 @@
       <c r="T65" s="6"/>
       <c r="U65" s="6"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>43524</v>
       </c>
@@ -2559,7 +2569,7 @@
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="M67" s="3">
         <v>43737</v>
@@ -2577,7 +2587,7 @@
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M68" s="2">
         <v>43738</v>
       </c>
@@ -2592,19 +2602,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A69" s="30" t="s">
+    <row r="69" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43525</v>
       </c>
@@ -2618,19 +2628,19 @@
       <c r="G70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M70" s="32" t="s">
+      <c r="M70" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="32"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="32"/>
-      <c r="T70" s="32"/>
-      <c r="U70" s="32"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>43526</v>
       </c>
@@ -2660,7 +2670,7 @@
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>43527</v>
       </c>
@@ -2690,7 +2700,7 @@
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>43528</v>
       </c>
@@ -2720,7 +2730,7 @@
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>43529</v>
       </c>
@@ -2750,7 +2760,7 @@
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>43530</v>
       </c>
@@ -2780,7 +2790,7 @@
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>43531</v>
       </c>
@@ -2810,7 +2820,7 @@
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>43532</v>
       </c>
@@ -2840,7 +2850,7 @@
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>43533</v>
       </c>
@@ -2872,7 +2882,7 @@
       <c r="T78" s="6"/>
       <c r="U78" s="6"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>43534</v>
       </c>
@@ -2902,7 +2912,7 @@
       <c r="T79" s="6"/>
       <c r="U79" s="6"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>43535</v>
       </c>
@@ -2932,7 +2942,7 @@
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>43536</v>
       </c>
@@ -2962,7 +2972,7 @@
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>43537</v>
       </c>
@@ -2992,7 +3002,7 @@
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>43538</v>
       </c>
@@ -3022,7 +3032,7 @@
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>43539</v>
       </c>
@@ -3052,7 +3062,7 @@
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>43540</v>
       </c>
@@ -3082,7 +3092,7 @@
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>43541</v>
       </c>
@@ -3112,7 +3122,7 @@
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>43542</v>
       </c>
@@ -3142,7 +3152,7 @@
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>43543</v>
       </c>
@@ -3172,7 +3182,7 @@
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>43544</v>
       </c>
@@ -3202,7 +3212,7 @@
       <c r="T89" s="6"/>
       <c r="U89" s="6"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>43545</v>
       </c>
@@ -3232,7 +3242,7 @@
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>43546</v>
       </c>
@@ -3262,7 +3272,7 @@
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>43547</v>
       </c>
@@ -3292,7 +3302,7 @@
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>43548</v>
       </c>
@@ -3322,7 +3332,7 @@
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>43549</v>
       </c>
@@ -3352,7 +3362,7 @@
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>43550</v>
       </c>
@@ -3382,7 +3392,7 @@
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>43551</v>
       </c>
@@ -3412,7 +3422,7 @@
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>43552</v>
       </c>
@@ -3442,7 +3452,7 @@
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>43553</v>
       </c>
@@ -3472,7 +3482,7 @@
       <c r="T98" s="6"/>
       <c r="U98" s="6"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>43554</v>
       </c>
@@ -3502,7 +3512,7 @@
       <c r="T99" s="6"/>
       <c r="U99" s="6"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>43555</v>
       </c>
@@ -3532,7 +3542,7 @@
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M101" s="3">
         <v>43769</v>
       </c>
@@ -3549,18 +3559,18 @@
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
     </row>
-    <row r="102" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A102" s="30" t="s">
+    <row r="102" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="A102" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-    </row>
-    <row r="103" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+    </row>
+    <row r="103" spans="1:21" ht="21" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>43556</v>
       </c>
@@ -3574,19 +3584,19 @@
       <c r="G103" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M103" s="32" t="s">
+      <c r="M103" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="N103" s="32"/>
-      <c r="O103" s="32"/>
-      <c r="P103" s="32"/>
-      <c r="Q103" s="32"/>
-      <c r="R103" s="32"/>
-      <c r="S103" s="32"/>
-      <c r="T103" s="32"/>
-      <c r="U103" s="32"/>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N103" s="33"/>
+      <c r="O103" s="33"/>
+      <c r="P103" s="33"/>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="33"/>
+      <c r="S103" s="33"/>
+      <c r="T103" s="33"/>
+      <c r="U103" s="33"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>43557</v>
       </c>
@@ -3616,7 +3626,7 @@
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>43558</v>
       </c>
@@ -3646,7 +3656,7 @@
       <c r="T105" s="6"/>
       <c r="U105" s="6"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>43559</v>
       </c>
@@ -3676,7 +3686,7 @@
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>43560</v>
       </c>
@@ -3706,7 +3716,7 @@
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>43561</v>
       </c>
@@ -3736,7 +3746,7 @@
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>43562</v>
       </c>
@@ -3766,7 +3776,7 @@
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>43563</v>
       </c>
@@ -3796,7 +3806,7 @@
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>43564</v>
       </c>
@@ -3826,7 +3836,7 @@
       <c r="T111" s="6"/>
       <c r="U111" s="6"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>43565</v>
       </c>
@@ -3856,7 +3866,7 @@
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>43566</v>
       </c>
@@ -3886,7 +3896,7 @@
       <c r="T113" s="6"/>
       <c r="U113" s="6"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>43567</v>
       </c>
@@ -3916,7 +3926,7 @@
       <c r="T114" s="6"/>
       <c r="U114" s="6"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>43568</v>
       </c>
@@ -3946,7 +3956,7 @@
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>43569</v>
       </c>
@@ -3976,7 +3986,7 @@
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>43570</v>
       </c>
@@ -4006,7 +4016,7 @@
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>43571</v>
       </c>
@@ -4036,7 +4046,7 @@
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>43572</v>
       </c>
@@ -4066,7 +4076,7 @@
       <c r="T119" s="6"/>
       <c r="U119" s="6"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>43573</v>
       </c>
@@ -4096,7 +4106,7 @@
       <c r="T120" s="6"/>
       <c r="U120" s="6"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>43574</v>
       </c>
@@ -4126,7 +4136,7 @@
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>43575</v>
       </c>
@@ -4156,7 +4166,7 @@
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>43576</v>
       </c>
@@ -4186,7 +4196,7 @@
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>43577</v>
       </c>
@@ -4216,7 +4226,7 @@
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>43578</v>
       </c>
@@ -4246,7 +4256,7 @@
       <c r="T125" s="6"/>
       <c r="U125" s="6"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>43579</v>
       </c>
@@ -4276,7 +4286,7 @@
       <c r="T126" s="6"/>
       <c r="U126" s="6"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>43580</v>
       </c>
@@ -4306,7 +4316,7 @@
       <c r="T127" s="6"/>
       <c r="U127" s="6"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>43581</v>
       </c>
@@ -4336,7 +4346,7 @@
       <c r="T128" s="6"/>
       <c r="U128" s="6"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>43582</v>
       </c>
@@ -4368,7 +4378,7 @@
       <c r="T129" s="6"/>
       <c r="U129" s="6"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>43583</v>
       </c>
@@ -4398,7 +4408,7 @@
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>43584</v>
       </c>
@@ -4428,7 +4438,7 @@
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>43585</v>
       </c>
@@ -4458,7 +4468,7 @@
       <c r="T132" s="6"/>
       <c r="U132" s="6"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="M133" s="3">
         <v>43799</v>
@@ -4476,21 +4486,21 @@
       <c r="T133" s="6"/>
       <c r="U133" s="6"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M134" s="2"/>
     </row>
-    <row r="135" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A135" s="30" t="s">
+    <row r="135" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="A135" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B135" s="30"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="30"/>
-    </row>
-    <row r="136" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
+    </row>
+    <row r="136" spans="1:21" ht="21" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>43586</v>
       </c>
@@ -4504,19 +4514,19 @@
       <c r="G136" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M136" s="32" t="s">
+      <c r="M136" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="N136" s="32"/>
-      <c r="O136" s="32"/>
-      <c r="P136" s="32"/>
-      <c r="Q136" s="32"/>
-      <c r="R136" s="32"/>
-      <c r="S136" s="32"/>
-      <c r="T136" s="32"/>
-      <c r="U136" s="32"/>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N136" s="33"/>
+      <c r="O136" s="33"/>
+      <c r="P136" s="33"/>
+      <c r="Q136" s="33"/>
+      <c r="R136" s="33"/>
+      <c r="S136" s="33"/>
+      <c r="T136" s="33"/>
+      <c r="U136" s="33"/>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>43587</v>
       </c>
@@ -4546,7 +4556,7 @@
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>43588</v>
       </c>
@@ -4576,7 +4586,7 @@
       <c r="T138" s="6"/>
       <c r="U138" s="6"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>43589</v>
       </c>
@@ -4606,7 +4616,7 @@
       <c r="T139" s="6"/>
       <c r="U139" s="6"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>43590</v>
       </c>
@@ -4636,7 +4646,7 @@
       <c r="T140" s="6"/>
       <c r="U140" s="6"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>43591</v>
       </c>
@@ -4666,7 +4676,7 @@
       <c r="T141" s="6"/>
       <c r="U141" s="6"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>43592</v>
       </c>
@@ -4696,7 +4706,7 @@
       <c r="T142" s="6"/>
       <c r="U142" s="6"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>43593</v>
       </c>
@@ -4726,7 +4736,7 @@
       <c r="T143" s="6"/>
       <c r="U143" s="6"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>43594</v>
       </c>
@@ -4756,7 +4766,7 @@
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>43595</v>
       </c>
@@ -4786,7 +4796,7 @@
       <c r="T145" s="6"/>
       <c r="U145" s="6"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>43596</v>
       </c>
@@ -4816,7 +4826,7 @@
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>43597</v>
       </c>
@@ -4846,7 +4856,7 @@
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>43598</v>
       </c>
@@ -4876,7 +4886,7 @@
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>43599</v>
       </c>
@@ -4906,7 +4916,7 @@
       <c r="T149" s="6"/>
       <c r="U149" s="6"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>43600</v>
       </c>
@@ -4938,7 +4948,7 @@
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>43601</v>
       </c>
@@ -4968,7 +4978,7 @@
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>43602</v>
       </c>
@@ -4998,7 +5008,7 @@
       <c r="T152" s="6"/>
       <c r="U152" s="6"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>43603</v>
       </c>
@@ -5028,7 +5038,7 @@
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>43604</v>
       </c>
@@ -5058,7 +5068,7 @@
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>43605</v>
       </c>
@@ -5088,7 +5098,7 @@
       <c r="T155" s="8"/>
       <c r="U155" s="6"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>43606</v>
       </c>
@@ -5118,7 +5128,7 @@
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>43607</v>
       </c>
@@ -5148,7 +5158,7 @@
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>43608</v>
       </c>
@@ -5178,7 +5188,7 @@
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>43609</v>
       </c>
@@ -5208,7 +5218,7 @@
       <c r="T159" s="6"/>
       <c r="U159" s="6"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>43610</v>
       </c>
@@ -5238,7 +5248,7 @@
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>43611</v>
       </c>
@@ -5268,7 +5278,7 @@
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>43612</v>
       </c>
@@ -5298,7 +5308,7 @@
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>43613</v>
       </c>
@@ -5328,7 +5338,7 @@
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>43614</v>
       </c>
@@ -5358,7 +5368,7 @@
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>43615</v>
       </c>
@@ -5388,7 +5398,7 @@
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>43616</v>
       </c>
@@ -5418,7 +5428,7 @@
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M167" s="3">
         <v>43830</v>
       </c>
@@ -5435,18 +5445,18 @@
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
     </row>
-    <row r="169" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A169" s="30" t="s">
+    <row r="169" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="A169" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B169" s="30"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="30"/>
-      <c r="F169" s="30"/>
-      <c r="G169" s="30"/>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B169" s="31"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="31"/>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>43617</v>
       </c>
@@ -5461,7 +5471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>43618</v>
       </c>
@@ -5476,7 +5486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>43619</v>
       </c>
@@ -5491,7 +5501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>43620</v>
       </c>
@@ -5506,7 +5516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>43621</v>
       </c>
@@ -5521,7 +5531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>43622</v>
       </c>
@@ -5536,7 +5546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>43623</v>
       </c>
@@ -5551,7 +5561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>43624</v>
       </c>
@@ -5566,7 +5576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>43625</v>
       </c>
@@ -5581,7 +5591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>43626</v>
       </c>
@@ -5596,7 +5606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>43627</v>
       </c>
@@ -5611,7 +5621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>43628</v>
       </c>
@@ -5628,7 +5638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>43629</v>
       </c>
@@ -5643,7 +5653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>43630</v>
       </c>
@@ -5658,7 +5668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>43631</v>
       </c>
@@ -5673,7 +5683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>43632</v>
       </c>
@@ -5688,7 +5698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>43633</v>
       </c>
@@ -5703,7 +5713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>43634</v>
       </c>
@@ -5718,7 +5728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>43635</v>
       </c>
@@ -5733,7 +5743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>43636</v>
       </c>
@@ -5748,7 +5758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>43637</v>
       </c>
@@ -5763,7 +5773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>43638</v>
       </c>
@@ -5778,7 +5788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>43639</v>
       </c>
@@ -5793,7 +5803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>43640</v>
       </c>
@@ -5808,7 +5818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>43641</v>
       </c>
@@ -5823,7 +5833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>43642</v>
       </c>
@@ -5838,7 +5848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>43643</v>
       </c>
@@ -5853,7 +5863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>43644</v>
       </c>
@@ -5868,7 +5878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>43645</v>
       </c>
@@ -5883,7 +5893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>43646</v>
       </c>
@@ -5892,21 +5902,21 @@
       <c r="D199" s="21"/>
       <c r="E199" s="24"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
     </row>
-    <row r="201" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A201" s="30" t="s">
+    <row r="201" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A201" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B201" s="30"/>
-      <c r="C201" s="30"/>
-      <c r="D201" s="30"/>
-      <c r="E201" s="30"/>
-      <c r="F201" s="30"/>
-      <c r="G201" s="30"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B201" s="31"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="31"/>
+      <c r="F201" s="31"/>
+      <c r="G201" s="31"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>43647</v>
       </c>
@@ -5921,7 +5931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>43648</v>
       </c>
@@ -5936,7 +5946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>43649</v>
       </c>
@@ -5951,7 +5961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>43650</v>
       </c>
@@ -5966,7 +5976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>43651</v>
       </c>
@@ -5981,7 +5991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>43652</v>
       </c>
@@ -5996,7 +6006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>43653</v>
       </c>
@@ -6011,7 +6021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>43654</v>
       </c>
@@ -6026,7 +6036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>43655</v>
       </c>
@@ -6041,7 +6051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>43656</v>
       </c>
@@ -6056,7 +6066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>43657</v>
       </c>
@@ -6071,7 +6081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>43658</v>
       </c>
@@ -6086,7 +6096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>43659</v>
       </c>
@@ -6101,7 +6111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>43660</v>
       </c>
@@ -6116,7 +6126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>43661</v>
       </c>
@@ -6131,7 +6141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>43662</v>
       </c>
@@ -6146,7 +6156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>43663</v>
       </c>
@@ -6161,7 +6171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>43664</v>
       </c>
@@ -6176,7 +6186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>43665</v>
       </c>
@@ -6191,7 +6201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>43666</v>
       </c>
@@ -6206,7 +6216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>43667</v>
       </c>
@@ -6221,7 +6231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>43668</v>
       </c>
@@ -6236,7 +6246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>43669</v>
       </c>
@@ -6251,7 +6261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>43670</v>
       </c>
@@ -6266,7 +6276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>43671</v>
       </c>
@@ -6281,7 +6291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>43672</v>
       </c>
@@ -6296,7 +6306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>43673</v>
       </c>
@@ -6311,7 +6321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>43674</v>
       </c>
@@ -6326,7 +6336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>43675</v>
       </c>
@@ -6341,7 +6351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>43676</v>
       </c>
@@ -6356,7 +6366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>43677</v>
       </c>
@@ -6400,94 +6410,94 @@
       <selection sqref="A1:S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29">
+    <row r="1" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30">
         <v>2020</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-    </row>
-    <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+    </row>
+    <row r="2" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+    </row>
+    <row r="3" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+    </row>
+    <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="M4" s="31" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="M4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>43831</v>
       </c>
@@ -6515,7 +6525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43832</v>
       </c>
@@ -6543,7 +6553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43833</v>
       </c>
@@ -6571,7 +6581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>43834</v>
       </c>
@@ -6599,7 +6609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>43835</v>
       </c>
@@ -6627,7 +6637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43836</v>
       </c>
@@ -6655,7 +6665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43837</v>
       </c>
@@ -6683,7 +6693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>43838</v>
       </c>
@@ -6711,7 +6721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43839</v>
       </c>
@@ -6739,7 +6749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43840</v>
       </c>
@@ -6767,7 +6777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>43841</v>
       </c>
@@ -6795,7 +6805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>43842</v>
       </c>
@@ -6823,7 +6833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>43843</v>
       </c>
@@ -6851,7 +6861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43844</v>
       </c>
@@ -6879,7 +6889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43845</v>
       </c>
@@ -6907,7 +6917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>43846</v>
       </c>
@@ -6935,7 +6945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>43847</v>
       </c>
@@ -6963,7 +6973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43848</v>
       </c>
@@ -6991,7 +7001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>43849</v>
       </c>
@@ -7019,7 +7029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>43850</v>
       </c>
@@ -7047,7 +7057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>43851</v>
       </c>
@@ -7075,7 +7085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>43852</v>
       </c>
@@ -7103,7 +7113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>43853</v>
       </c>
@@ -7131,7 +7141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>43854</v>
       </c>
@@ -7159,7 +7169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>43855</v>
       </c>
@@ -7187,7 +7197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>43856</v>
       </c>
@@ -7215,7 +7225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>43857</v>
       </c>
@@ -7243,7 +7253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>43858</v>
       </c>
@@ -7271,7 +7281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>43859</v>
       </c>
@@ -7299,7 +7309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>43860</v>
       </c>
@@ -7327,7 +7337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>43861</v>
       </c>
@@ -7355,28 +7365,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-    </row>
-    <row r="38" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="30" t="s">
+    <row r="37" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+    </row>
+    <row r="38" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
       <c r="L38" s="15"/>
       <c r="M38" s="19"/>
       <c r="N38" s="7"/>
@@ -7386,7 +7396,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>43862</v>
       </c>
@@ -7409,7 +7419,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>43863</v>
       </c>
@@ -7432,7 +7442,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>43864</v>
       </c>
@@ -7455,7 +7465,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>43865</v>
       </c>
@@ -7478,7 +7488,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>43866</v>
       </c>
@@ -7501,7 +7511,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43867</v>
       </c>
@@ -7524,7 +7534,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43868</v>
       </c>
@@ -7547,7 +7557,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43869</v>
       </c>
@@ -7570,7 +7580,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43870</v>
       </c>
@@ -7593,7 +7603,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>43871</v>
       </c>
@@ -7616,7 +7626,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>43872</v>
       </c>
@@ -7639,7 +7649,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>43873</v>
       </c>
@@ -7662,7 +7672,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>43874</v>
       </c>
@@ -7685,7 +7695,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>43875</v>
       </c>
@@ -7708,7 +7718,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>43876</v>
       </c>
@@ -7731,7 +7741,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>43877</v>
       </c>
@@ -7754,7 +7764,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>43878</v>
       </c>
@@ -7777,7 +7787,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>43879</v>
       </c>
@@ -7800,7 +7810,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>43880</v>
       </c>
@@ -7823,7 +7833,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>43881</v>
       </c>
@@ -7846,7 +7856,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>43882</v>
       </c>
@@ -7869,7 +7879,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>43883</v>
       </c>
@@ -7892,7 +7902,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>43884</v>
       </c>
@@ -7915,7 +7925,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>43885</v>
       </c>
@@ -7938,7 +7948,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>43886</v>
       </c>
@@ -7961,7 +7971,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>43887</v>
       </c>
@@ -7984,7 +7994,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>43888</v>
       </c>
@@ -8007,7 +8017,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>43889</v>
       </c>
@@ -8030,7 +8040,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>43890</v>
       </c>
@@ -8053,7 +8063,7 @@
       <c r="R67" s="15"/>
       <c r="S67" s="15"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L68" s="15"/>
       <c r="M68" s="20"/>
       <c r="N68" s="15"/>
@@ -8063,26 +8073,26 @@
       <c r="R68" s="15"/>
       <c r="S68" s="15"/>
     </row>
-    <row r="69" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A69" s="30" t="s">
+    <row r="69" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
       <c r="L69" s="15"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="33"/>
-      <c r="S69" s="33"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="34"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>43891</v>
       </c>
@@ -8105,7 +8115,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>43892</v>
       </c>
@@ -8130,7 +8140,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>43893</v>
       </c>
@@ -8153,7 +8163,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>43894</v>
       </c>
@@ -8176,7 +8186,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>43895</v>
       </c>
@@ -8199,7 +8209,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>43896</v>
       </c>
@@ -8222,7 +8232,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>43897</v>
       </c>
@@ -8245,7 +8255,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>43898</v>
       </c>
@@ -8268,7 +8278,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>43899</v>
       </c>
@@ -8291,7 +8301,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>43900</v>
       </c>
@@ -8314,7 +8324,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>43901</v>
       </c>
@@ -8337,7 +8347,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>43902</v>
       </c>
@@ -8360,7 +8370,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>43903</v>
       </c>
@@ -8383,7 +8393,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>43904</v>
       </c>
@@ -8406,7 +8416,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="7"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>43905</v>
       </c>
@@ -8429,7 +8439,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>43906</v>
       </c>
@@ -8452,7 +8462,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="7"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>43907</v>
       </c>
@@ -8475,7 +8485,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>43908</v>
       </c>
@@ -8498,7 +8508,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="7"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>43909</v>
       </c>
@@ -8521,7 +8531,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>43910</v>
       </c>
@@ -8544,7 +8554,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="7"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>43911</v>
       </c>
@@ -8567,7 +8577,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>43912</v>
       </c>
@@ -8590,7 +8600,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="7"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>43913</v>
       </c>
@@ -8613,7 +8623,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="7"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>43914</v>
       </c>
@@ -8636,7 +8646,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="7"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>43915</v>
       </c>
@@ -8659,7 +8669,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="7"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>43916</v>
       </c>
@@ -8682,7 +8692,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="7"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>43917</v>
       </c>
@@ -8705,7 +8715,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="7"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>43918</v>
       </c>
@@ -8728,7 +8738,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="7"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>43919</v>
       </c>
@@ -8751,7 +8761,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="7"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>43920</v>
       </c>
@@ -8774,7 +8784,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="7"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>43921</v>
       </c>
@@ -8797,7 +8807,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="7"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L101" s="15"/>
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
@@ -8807,26 +8817,26 @@
       <c r="R101" s="15"/>
       <c r="S101" s="15"/>
     </row>
-    <row r="102" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A102" s="30" t="s">
+    <row r="102" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A102" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
       <c r="L102" s="15"/>
-      <c r="M102" s="33"/>
-      <c r="N102" s="33"/>
-      <c r="O102" s="33"/>
-      <c r="P102" s="33"/>
-      <c r="Q102" s="33"/>
-      <c r="R102" s="33"/>
-      <c r="S102" s="33"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M102" s="34"/>
+      <c r="N102" s="34"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
+      <c r="Q102" s="34"/>
+      <c r="R102" s="34"/>
+      <c r="S102" s="34"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>43922</v>
       </c>
@@ -8849,7 +8859,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="7"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>43923</v>
       </c>
@@ -8872,7 +8882,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="7"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>43924</v>
       </c>
@@ -8895,7 +8905,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="7"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>43925</v>
       </c>
@@ -8918,7 +8928,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="7"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>43926</v>
       </c>
@@ -8941,7 +8951,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="7"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>43927</v>
       </c>
@@ -8964,7 +8974,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="7"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>43928</v>
       </c>
@@ -8987,7 +8997,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="7"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>43929</v>
       </c>
@@ -9010,7 +9020,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="7"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>43930</v>
       </c>
@@ -9033,7 +9043,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="7"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>43931</v>
       </c>
@@ -9056,7 +9066,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="7"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>43932</v>
       </c>
@@ -9079,7 +9089,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="7"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>43933</v>
       </c>
@@ -9102,7 +9112,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="7"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>43934</v>
       </c>
@@ -9125,7 +9135,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="7"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>43935</v>
       </c>
@@ -9148,7 +9158,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="7"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>43936</v>
       </c>
@@ -9171,7 +9181,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="7"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>43937</v>
       </c>
@@ -9194,7 +9204,7 @@
       <c r="R118" s="7"/>
       <c r="S118" s="7"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>43938</v>
       </c>
@@ -9217,7 +9227,7 @@
       <c r="R119" s="7"/>
       <c r="S119" s="7"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>43939</v>
       </c>
@@ -9240,7 +9250,7 @@
       <c r="R120" s="7"/>
       <c r="S120" s="7"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>43940</v>
       </c>
@@ -9263,7 +9273,7 @@
       <c r="R121" s="7"/>
       <c r="S121" s="7"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>43941</v>
       </c>
@@ -9286,7 +9296,7 @@
       <c r="R122" s="7"/>
       <c r="S122" s="7"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>43942</v>
       </c>
@@ -9309,7 +9319,7 @@
       <c r="R123" s="7"/>
       <c r="S123" s="7"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>43943</v>
       </c>
@@ -9332,7 +9342,7 @@
       <c r="R124" s="7"/>
       <c r="S124" s="7"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>43944</v>
       </c>
@@ -9355,7 +9365,7 @@
       <c r="R125" s="7"/>
       <c r="S125" s="7"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>43945</v>
       </c>
@@ -9378,7 +9388,7 @@
       <c r="R126" s="7"/>
       <c r="S126" s="7"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>43946</v>
       </c>
@@ -9401,7 +9411,7 @@
       <c r="R127" s="7"/>
       <c r="S127" s="7"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>43947</v>
       </c>
@@ -9424,7 +9434,7 @@
       <c r="R128" s="7"/>
       <c r="S128" s="7"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>43948</v>
       </c>
@@ -9447,7 +9457,7 @@
       <c r="R129" s="7"/>
       <c r="S129" s="7"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>43949</v>
       </c>
@@ -9470,7 +9480,7 @@
       <c r="R130" s="7"/>
       <c r="S130" s="7"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>43950</v>
       </c>
@@ -9493,7 +9503,7 @@
       <c r="R131" s="7"/>
       <c r="S131" s="7"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>43951</v>
       </c>
@@ -9516,7 +9526,7 @@
       <c r="R132" s="7"/>
       <c r="S132" s="7"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="L133" s="15"/>
       <c r="M133" s="20"/>
@@ -9527,7 +9537,7 @@
       <c r="R133" s="15"/>
       <c r="S133" s="15"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L134" s="15"/>
       <c r="M134" s="15"/>
       <c r="N134" s="15"/>
@@ -9537,26 +9547,26 @@
       <c r="R134" s="15"/>
       <c r="S134" s="15"/>
     </row>
-    <row r="135" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A135" s="30" t="s">
+    <row r="135" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A135" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B135" s="30"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="30"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
       <c r="L135" s="15"/>
-      <c r="M135" s="33"/>
-      <c r="N135" s="33"/>
-      <c r="O135" s="33"/>
-      <c r="P135" s="33"/>
-      <c r="Q135" s="33"/>
-      <c r="R135" s="33"/>
-      <c r="S135" s="33"/>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M135" s="34"/>
+      <c r="N135" s="34"/>
+      <c r="O135" s="34"/>
+      <c r="P135" s="34"/>
+      <c r="Q135" s="34"/>
+      <c r="R135" s="34"/>
+      <c r="S135" s="34"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>43952</v>
       </c>
@@ -9579,7 +9589,7 @@
       <c r="R136" s="7"/>
       <c r="S136" s="7"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>43953</v>
       </c>
@@ -9602,7 +9612,7 @@
       <c r="R137" s="7"/>
       <c r="S137" s="7"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>43954</v>
       </c>
@@ -9625,7 +9635,7 @@
       <c r="R138" s="7"/>
       <c r="S138" s="7"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>43955</v>
       </c>
@@ -9648,7 +9658,7 @@
       <c r="R139" s="7"/>
       <c r="S139" s="7"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>43956</v>
       </c>
@@ -9671,7 +9681,7 @@
       <c r="R140" s="7"/>
       <c r="S140" s="7"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>43957</v>
       </c>
@@ -9694,7 +9704,7 @@
       <c r="R141" s="7"/>
       <c r="S141" s="7"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>43958</v>
       </c>
@@ -9717,7 +9727,7 @@
       <c r="R142" s="7"/>
       <c r="S142" s="7"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>43959</v>
       </c>
@@ -9740,7 +9750,7 @@
       <c r="R143" s="7"/>
       <c r="S143" s="7"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>43960</v>
       </c>
@@ -9763,7 +9773,7 @@
       <c r="R144" s="7"/>
       <c r="S144" s="7"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>43961</v>
       </c>
@@ -9786,7 +9796,7 @@
       <c r="R145" s="7"/>
       <c r="S145" s="7"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>43962</v>
       </c>
@@ -9809,7 +9819,7 @@
       <c r="R146" s="7"/>
       <c r="S146" s="7"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>43963</v>
       </c>
@@ -9832,7 +9842,7 @@
       <c r="R147" s="7"/>
       <c r="S147" s="7"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>43964</v>
       </c>
@@ -9855,7 +9865,7 @@
       <c r="R148" s="7"/>
       <c r="S148" s="7"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>43965</v>
       </c>
@@ -9878,7 +9888,7 @@
       <c r="R149" s="7"/>
       <c r="S149" s="7"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>43966</v>
       </c>
@@ -9901,7 +9911,7 @@
       <c r="R150" s="7"/>
       <c r="S150" s="7"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>43967</v>
       </c>
@@ -9924,7 +9934,7 @@
       <c r="R151" s="7"/>
       <c r="S151" s="7"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>43968</v>
       </c>
@@ -9947,7 +9957,7 @@
       <c r="R152" s="7"/>
       <c r="S152" s="7"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>43969</v>
       </c>
@@ -9970,7 +9980,7 @@
       <c r="R153" s="7"/>
       <c r="S153" s="7"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>43970</v>
       </c>
@@ -9993,7 +10003,7 @@
       <c r="R154" s="17"/>
       <c r="S154" s="7"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>43971</v>
       </c>
@@ -10016,7 +10026,7 @@
       <c r="R155" s="7"/>
       <c r="S155" s="7"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>43972</v>
       </c>
@@ -10039,7 +10049,7 @@
       <c r="R156" s="7"/>
       <c r="S156" s="7"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>43973</v>
       </c>
@@ -10062,7 +10072,7 @@
       <c r="R157" s="7"/>
       <c r="S157" s="7"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>43974</v>
       </c>
@@ -10085,7 +10095,7 @@
       <c r="R158" s="7"/>
       <c r="S158" s="7"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>43975</v>
       </c>
@@ -10108,7 +10118,7 @@
       <c r="R159" s="7"/>
       <c r="S159" s="7"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>43976</v>
       </c>
@@ -10131,7 +10141,7 @@
       <c r="R160" s="7"/>
       <c r="S160" s="7"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>43977</v>
       </c>
@@ -10154,7 +10164,7 @@
       <c r="R161" s="7"/>
       <c r="S161" s="7"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>43978</v>
       </c>
@@ -10177,7 +10187,7 @@
       <c r="R162" s="7"/>
       <c r="S162" s="7"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>43979</v>
       </c>
@@ -10200,7 +10210,7 @@
       <c r="R163" s="7"/>
       <c r="S163" s="7"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>43980</v>
       </c>
@@ -10223,7 +10233,7 @@
       <c r="R164" s="7"/>
       <c r="S164" s="7"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>43981</v>
       </c>
@@ -10246,7 +10256,7 @@
       <c r="R165" s="7"/>
       <c r="S165" s="7"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>43982</v>
       </c>
@@ -10269,7 +10279,7 @@
       <c r="R166" s="7"/>
       <c r="S166" s="7"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B167" s="15"/>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
@@ -10284,7 +10294,7 @@
       <c r="R167" s="15"/>
       <c r="S167" s="15"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L168" s="15"/>
       <c r="M168" s="15"/>
       <c r="N168" s="15"/>
@@ -10294,16 +10304,16 @@
       <c r="R168" s="15"/>
       <c r="S168" s="15"/>
     </row>
-    <row r="169" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A169" s="30" t="s">
+    <row r="169" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A169" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B169" s="30"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="30"/>
-      <c r="F169" s="30"/>
-      <c r="G169" s="30"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="31"/>
       <c r="L169" s="15"/>
       <c r="M169" s="15"/>
       <c r="N169" s="15"/>
@@ -10313,7 +10323,7 @@
       <c r="R169" s="15"/>
       <c r="S169" s="15"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>43983</v>
       </c>
@@ -10336,7 +10346,7 @@
       <c r="R170" s="15"/>
       <c r="S170" s="15"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>43984</v>
       </c>
@@ -10359,7 +10369,7 @@
       <c r="R171" s="15"/>
       <c r="S171" s="15"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>43985</v>
       </c>
@@ -10382,7 +10392,7 @@
       <c r="R172" s="15"/>
       <c r="S172" s="15"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>43986</v>
       </c>
@@ -10405,7 +10415,7 @@
       <c r="R173" s="15"/>
       <c r="S173" s="15"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>43987</v>
       </c>
@@ -10428,7 +10438,7 @@
       <c r="R174" s="15"/>
       <c r="S174" s="15"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>43988</v>
       </c>
@@ -10451,7 +10461,7 @@
       <c r="R175" s="15"/>
       <c r="S175" s="15"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>43989</v>
       </c>
@@ -10474,7 +10484,7 @@
       <c r="R176" s="15"/>
       <c r="S176" s="15"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>43990</v>
       </c>
@@ -10497,7 +10507,7 @@
       <c r="R177" s="15"/>
       <c r="S177" s="15"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>43991</v>
       </c>
@@ -10520,7 +10530,7 @@
       <c r="R178" s="15"/>
       <c r="S178" s="15"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>43992</v>
       </c>
@@ -10543,7 +10553,7 @@
       <c r="R179" s="15"/>
       <c r="S179" s="15"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>43993</v>
       </c>
@@ -10566,7 +10576,7 @@
       <c r="R180" s="15"/>
       <c r="S180" s="15"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>43994</v>
       </c>
@@ -10589,7 +10599,7 @@
       <c r="R181" s="15"/>
       <c r="S181" s="15"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>43995</v>
       </c>
@@ -10612,7 +10622,7 @@
       <c r="R182" s="15"/>
       <c r="S182" s="15"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>43996</v>
       </c>
@@ -10635,7 +10645,7 @@
       <c r="R183" s="15"/>
       <c r="S183" s="15"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>43997</v>
       </c>
@@ -10658,7 +10668,7 @@
       <c r="R184" s="15"/>
       <c r="S184" s="15"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>43998</v>
       </c>
@@ -10681,7 +10691,7 @@
       <c r="R185" s="15"/>
       <c r="S185" s="15"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>43999</v>
       </c>
@@ -10704,7 +10714,7 @@
       <c r="R186" s="15"/>
       <c r="S186" s="15"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>44000</v>
       </c>
@@ -10727,7 +10737,7 @@
       <c r="R187" s="15"/>
       <c r="S187" s="15"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>44001</v>
       </c>
@@ -10750,7 +10760,7 @@
       <c r="R188" s="15"/>
       <c r="S188" s="15"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>44002</v>
       </c>
@@ -10773,7 +10783,7 @@
       <c r="R189" s="15"/>
       <c r="S189" s="15"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>44003</v>
       </c>
@@ -10796,7 +10806,7 @@
       <c r="R190" s="15"/>
       <c r="S190" s="15"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>44004</v>
       </c>
@@ -10819,7 +10829,7 @@
       <c r="R191" s="15"/>
       <c r="S191" s="15"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>44005</v>
       </c>
@@ -10842,7 +10852,7 @@
       <c r="R192" s="15"/>
       <c r="S192" s="15"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>44006</v>
       </c>
@@ -10865,7 +10875,7 @@
       <c r="R193" s="15"/>
       <c r="S193" s="15"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>44007</v>
       </c>
@@ -10888,7 +10898,7 @@
       <c r="R194" s="15"/>
       <c r="S194" s="15"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>44008</v>
       </c>
@@ -10911,7 +10921,7 @@
       <c r="R195" s="15"/>
       <c r="S195" s="15"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>44009</v>
       </c>
@@ -10934,7 +10944,7 @@
       <c r="R196" s="15"/>
       <c r="S196" s="15"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>44010</v>
       </c>
@@ -10957,7 +10967,7 @@
       <c r="R197" s="15"/>
       <c r="S197" s="15"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>44011</v>
       </c>
@@ -10980,7 +10990,7 @@
       <c r="R198" s="15"/>
       <c r="S198" s="15"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>44012</v>
       </c>
@@ -10996,21 +11006,21 @@
       </c>
       <c r="L199" s="15"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
     </row>
-    <row r="201" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A201" s="30" t="s">
+    <row r="201" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A201" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B201" s="30"/>
-      <c r="C201" s="30"/>
-      <c r="D201" s="30"/>
-      <c r="E201" s="30"/>
-      <c r="F201" s="30"/>
-      <c r="G201" s="30"/>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B201" s="31"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="31"/>
+      <c r="F201" s="31"/>
+      <c r="G201" s="31"/>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>44013</v>
       </c>
@@ -11025,7 +11035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>44014</v>
       </c>
@@ -11040,7 +11050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>44015</v>
       </c>
@@ -11055,7 +11065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>44016</v>
       </c>
@@ -11070,7 +11080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>44017</v>
       </c>
@@ -11085,7 +11095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>44018</v>
       </c>
@@ -11100,7 +11110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>44019</v>
       </c>
@@ -11115,7 +11125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>44020</v>
       </c>
@@ -11130,7 +11140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>44021</v>
       </c>
@@ -11145,7 +11155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>44022</v>
       </c>
@@ -11160,7 +11170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>44023</v>
       </c>
@@ -11175,7 +11185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>44024</v>
       </c>
@@ -11190,7 +11200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>44025</v>
       </c>
@@ -11205,7 +11215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>44026</v>
       </c>
@@ -11220,7 +11230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>44027</v>
       </c>
@@ -11235,7 +11245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>44028</v>
       </c>
@@ -11250,7 +11260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>44029</v>
       </c>
@@ -11265,7 +11275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>44030</v>
       </c>
@@ -11280,7 +11290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>44031</v>
       </c>
@@ -11295,7 +11305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>44032</v>
       </c>
@@ -11310,7 +11320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>44033</v>
       </c>
@@ -11325,7 +11335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>44034</v>
       </c>
@@ -11340,7 +11350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>44035</v>
       </c>
@@ -11355,7 +11365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>44036</v>
       </c>
@@ -11370,7 +11380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>44037</v>
       </c>
@@ -11385,7 +11395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>44038</v>
       </c>
@@ -11400,7 +11410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>44039</v>
       </c>
@@ -11415,7 +11425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>44040</v>
       </c>
@@ -11430,7 +11440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>44041</v>
       </c>
@@ -11445,7 +11455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>44042</v>
       </c>
@@ -11460,7 +11470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>44043</v>
       </c>
@@ -11497,32 +11507,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C2AFA5-DD70-DE40-80FB-4C7B9F2B93F6}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="E1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>43483</v>
       </c>
@@ -11533,11 +11543,18 @@
       <c r="E2" s="14">
         <v>43501</v>
       </c>
-      <c r="G2" s="18">
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="I2" s="18">
         <v>43892</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>43484</v>
       </c>
@@ -11548,11 +11565,18 @@
       <c r="E3" s="14">
         <v>43510</v>
       </c>
-      <c r="G3" s="18">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="I3" s="18">
         <v>43916</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>43485</v>
       </c>
@@ -11563,11 +11587,18 @@
       <c r="E4" s="14">
         <v>43520</v>
       </c>
-      <c r="G4" s="18">
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="I4" s="18">
         <v>43964</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>43486</v>
       </c>
@@ -11578,11 +11609,18 @@
       <c r="E5" s="14">
         <v>43524</v>
       </c>
-      <c r="G5" s="18">
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="I5" s="18">
         <v>43987</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43494</v>
       </c>
@@ -11593,11 +11631,18 @@
       <c r="E6" s="14">
         <v>43526</v>
       </c>
-      <c r="G6" s="18">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="I6" s="18">
         <v>44012</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>43518</v>
       </c>
@@ -11606,11 +11651,18 @@
       <c r="E7" s="14">
         <v>43532</v>
       </c>
-      <c r="G7" s="18">
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="I7" s="18">
         <v>44026</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>43524</v>
       </c>
@@ -11619,8 +11671,11 @@
       <c r="E8" s="14">
         <v>43552</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>43533</v>
       </c>
@@ -11629,8 +11684,11 @@
       <c r="E9" s="14">
         <v>43559</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>43564</v>
       </c>
@@ -11639,8 +11697,11 @@
       <c r="E10" s="14">
         <v>43564</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>43705</v>
       </c>
@@ -11649,8 +11710,11 @@
       <c r="E11" s="14">
         <v>43565</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>43723</v>
       </c>
@@ -11659,8 +11723,11 @@
       <c r="E12" s="14">
         <v>43705</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>43805</v>
       </c>
@@ -11669,8 +11736,11 @@
       <c r="E13" s="14">
         <v>43723</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>43830</v>
       </c>
@@ -11679,29 +11749,35 @@
       <c r="E14" s="14">
         <v>43736</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="E15" s="14">
         <v>43805</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
     </row>
   </sheetData>
@@ -11722,101 +11798,101 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="29">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="30">
         <v>2019</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-    </row>
-    <row r="4" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+    </row>
+    <row r="4" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="I4" s="31" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="I4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>43556</v>
       </c>
@@ -11836,7 +11912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43557</v>
       </c>
@@ -11856,7 +11932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43558</v>
       </c>
@@ -11876,7 +11952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>43559</v>
       </c>
@@ -11896,7 +11972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>43560</v>
       </c>
@@ -11916,7 +11992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43561</v>
       </c>
@@ -11936,7 +12012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43562</v>
       </c>
@@ -11956,7 +12032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>43563</v>
       </c>
@@ -11976,7 +12052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43564</v>
       </c>
@@ -11996,7 +12072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43565</v>
       </c>
@@ -12016,7 +12092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>43566</v>
       </c>
@@ -12036,7 +12112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>43567</v>
       </c>
@@ -12056,7 +12132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>43568</v>
       </c>
@@ -12076,7 +12152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43569</v>
       </c>
@@ -12096,7 +12172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43570</v>
       </c>
@@ -12116,7 +12192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>43571</v>
       </c>
@@ -12136,7 +12212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>43572</v>
       </c>
@@ -12156,7 +12232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43573</v>
       </c>
@@ -12176,7 +12252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>43574</v>
       </c>
@@ -12196,7 +12272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>43575</v>
       </c>
@@ -12216,7 +12292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>43576</v>
       </c>
@@ -12236,7 +12312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>43577</v>
       </c>
@@ -12256,7 +12332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>43578</v>
       </c>
@@ -12276,7 +12352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>43579</v>
       </c>
@@ -12296,7 +12372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>43580</v>
       </c>
@@ -12316,7 +12392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>43581</v>
       </c>
@@ -12336,7 +12412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>43582</v>
       </c>
@@ -12356,7 +12432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>43583</v>
       </c>
@@ -12376,7 +12452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>43584</v>
       </c>
@@ -12396,7 +12472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>43585</v>
       </c>
@@ -12416,7 +12492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>43586</v>
       </c>
@@ -12436,17 +12512,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="30" t="s">
+    <row r="37" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>43952</v>
       </c>
@@ -12458,7 +12534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>43953</v>
       </c>
@@ -12470,7 +12546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>43954</v>
       </c>
@@ -12482,7 +12558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>43955</v>
       </c>
@@ -12494,7 +12570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>43956</v>
       </c>
@@ -12506,7 +12582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>43957</v>
       </c>
@@ -12518,7 +12594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43958</v>
       </c>
@@ -12530,7 +12606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43959</v>
       </c>
@@ -12542,7 +12618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43960</v>
       </c>
@@ -12554,7 +12630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43961</v>
       </c>
@@ -12566,7 +12642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>43962</v>
       </c>
@@ -12578,7 +12654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>43963</v>
       </c>
@@ -12590,7 +12666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>43964</v>
       </c>
@@ -12602,7 +12678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>43965</v>
       </c>
@@ -12614,7 +12690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>43966</v>
       </c>
@@ -12626,7 +12702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>43967</v>
       </c>
@@ -12638,7 +12714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>43968</v>
       </c>
@@ -12650,7 +12726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>43969</v>
       </c>
@@ -12662,7 +12738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>43970</v>
       </c>
@@ -12674,7 +12750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>43971</v>
       </c>
@@ -12686,7 +12762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>43972</v>
       </c>
@@ -12698,7 +12774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>43973</v>
       </c>
@@ -12710,7 +12786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>43974</v>
       </c>
@@ -12722,7 +12798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>43975</v>
       </c>
@@ -12734,7 +12810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>43976</v>
       </c>
@@ -12746,7 +12822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>43977</v>
       </c>
@@ -12758,7 +12834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>43978</v>
       </c>
@@ -12770,7 +12846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>43979</v>
       </c>
@@ -12782,7 +12858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>43980</v>
       </c>
@@ -12794,7 +12870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>43981</v>
       </c>
@@ -12806,7 +12882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>43982</v>
       </c>
@@ -12818,17 +12894,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A70" s="30" t="s">
+    <row r="70" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>43647</v>
       </c>
@@ -12840,7 +12916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>43648</v>
       </c>
@@ -12852,7 +12928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>43649</v>
       </c>
@@ -12864,7 +12940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>43650</v>
       </c>
@@ -12876,7 +12952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>43651</v>
       </c>
@@ -12888,7 +12964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>43652</v>
       </c>
@@ -12900,7 +12976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>43653</v>
       </c>
@@ -12912,7 +12988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>43654</v>
       </c>
@@ -12924,7 +13000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>43655</v>
       </c>
@@ -12936,7 +13012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>43656</v>
       </c>
@@ -12948,7 +13024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>43657</v>
       </c>
@@ -12960,7 +13036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>43658</v>
       </c>
@@ -12972,7 +13048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>43659</v>
       </c>
@@ -12984,7 +13060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>43660</v>
       </c>
@@ -12996,7 +13072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>43661</v>
       </c>
@@ -13008,7 +13084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>43662</v>
       </c>
@@ -13020,7 +13096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>43663</v>
       </c>
@@ -13032,7 +13108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>43664</v>
       </c>
@@ -13044,7 +13120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>43665</v>
       </c>
@@ -13056,7 +13132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>43666</v>
       </c>
@@ -13068,7 +13144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>43667</v>
       </c>
@@ -13080,7 +13156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>43668</v>
       </c>
@@ -13092,7 +13168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>43669</v>
       </c>
@@ -13104,7 +13180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>43670</v>
       </c>
@@ -13116,7 +13192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>43671</v>
       </c>
@@ -13128,7 +13204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>43672</v>
       </c>
@@ -13140,7 +13216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>43673</v>
       </c>
@@ -13152,7 +13228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>43674</v>
       </c>
@@ -13164,7 +13240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>43675</v>
       </c>
@@ -13176,7 +13252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>43676</v>
       </c>
@@ -13188,7 +13264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>43677</v>
       </c>
@@ -13217,95 +13293,95 @@
   <dimension ref="A1:S229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="29">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="30">
         <v>2020</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-    </row>
-    <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+    </row>
+    <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="J4" s="31" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="J4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>43831</v>
       </c>
@@ -13327,7 +13403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43832</v>
       </c>
@@ -13349,7 +13425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43833</v>
       </c>
@@ -13371,7 +13447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>43834</v>
       </c>
@@ -13393,7 +13469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>43835</v>
       </c>
@@ -13415,7 +13491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43836</v>
       </c>
@@ -13437,7 +13513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43837</v>
       </c>
@@ -13459,7 +13535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>43838</v>
       </c>
@@ -13481,7 +13557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43839</v>
       </c>
@@ -13503,7 +13579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43840</v>
       </c>
@@ -13525,7 +13601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>43841</v>
       </c>
@@ -13547,7 +13623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>43842</v>
       </c>
@@ -13569,7 +13645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>43843</v>
       </c>
@@ -13591,7 +13667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43844</v>
       </c>
@@ -13613,7 +13689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43845</v>
       </c>
@@ -13635,7 +13711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>43846</v>
       </c>
@@ -13657,7 +13733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>43847</v>
       </c>
@@ -13679,7 +13755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43848</v>
       </c>
@@ -13701,7 +13777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>43849</v>
       </c>
@@ -13723,7 +13799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>43850</v>
       </c>
@@ -13745,7 +13821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>43851</v>
       </c>
@@ -13767,7 +13843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>43852</v>
       </c>
@@ -13789,7 +13865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>43853</v>
       </c>
@@ -13811,7 +13887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>43854</v>
       </c>
@@ -13833,7 +13909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>43855</v>
       </c>
@@ -13855,7 +13931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>43856</v>
       </c>
@@ -13877,7 +13953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>43857</v>
       </c>
@@ -13899,7 +13975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>43858</v>
       </c>
@@ -13921,7 +13997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>43859</v>
       </c>
@@ -13943,7 +14019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>43860</v>
       </c>
@@ -13965,7 +14041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>43861</v>
       </c>
@@ -13987,17 +14063,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="30" t="s">
+    <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>43862</v>
       </c>
@@ -14007,7 +14083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>43863</v>
       </c>
@@ -14017,7 +14093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>43864</v>
       </c>
@@ -14027,7 +14103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>43865</v>
       </c>
@@ -14037,7 +14113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>43866</v>
       </c>
@@ -14047,7 +14123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>43867</v>
       </c>
@@ -14057,7 +14133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43868</v>
       </c>
@@ -14067,7 +14143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43869</v>
       </c>
@@ -14077,7 +14153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43870</v>
       </c>
@@ -14087,7 +14163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43871</v>
       </c>
@@ -14097,7 +14173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>43872</v>
       </c>
@@ -14107,7 +14183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>43873</v>
       </c>
@@ -14117,7 +14193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>43874</v>
       </c>
@@ -14127,7 +14203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>43875</v>
       </c>
@@ -14137,7 +14213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>43876</v>
       </c>
@@ -14147,7 +14223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>43877</v>
       </c>
@@ -14157,7 +14233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>43878</v>
       </c>
@@ -14167,7 +14243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>43879</v>
       </c>
@@ -14177,7 +14253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>43880</v>
       </c>
@@ -14187,7 +14263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>43881</v>
       </c>
@@ -14197,7 +14273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>43882</v>
       </c>
@@ -14207,7 +14283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>43883</v>
       </c>
@@ -14217,7 +14293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>43884</v>
       </c>
@@ -14227,7 +14303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>43885</v>
       </c>
@@ -14237,7 +14313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>43886</v>
       </c>
@@ -14247,7 +14323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>43887</v>
       </c>
@@ -14257,7 +14333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>43888</v>
       </c>
@@ -14267,7 +14343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>43889</v>
       </c>
@@ -14277,7 +14353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>43890</v>
       </c>
@@ -14287,18 +14363,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A68" s="30" t="s">
+    <row r="68" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>43891</v>
       </c>
@@ -14310,7 +14386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>43892</v>
       </c>
@@ -14322,7 +14398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>43893</v>
       </c>
@@ -14334,7 +14410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>43894</v>
       </c>
@@ -14346,7 +14422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>43895</v>
       </c>
@@ -14358,7 +14434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>43896</v>
       </c>
@@ -14370,7 +14446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>43897</v>
       </c>
@@ -14382,7 +14458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>43898</v>
       </c>
@@ -14394,7 +14470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>43899</v>
       </c>
@@ -14406,7 +14482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>43900</v>
       </c>
@@ -14418,7 +14494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>43901</v>
       </c>
@@ -14430,7 +14506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>43902</v>
       </c>
@@ -14442,7 +14518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>43903</v>
       </c>
@@ -14454,7 +14530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>43904</v>
       </c>
@@ -14466,7 +14542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>43905</v>
       </c>
@@ -14478,7 +14554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>43906</v>
       </c>
@@ -14490,7 +14566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>43907</v>
       </c>
@@ -14502,7 +14578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>43908</v>
       </c>
@@ -14514,7 +14590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>43909</v>
       </c>
@@ -14526,7 +14602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>43910</v>
       </c>
@@ -14538,7 +14614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>43911</v>
       </c>
@@ -14550,7 +14626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>43912</v>
       </c>
@@ -14562,7 +14638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>43913</v>
       </c>
@@ -14574,7 +14650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>43914</v>
       </c>
@@ -14586,7 +14662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>43915</v>
       </c>
@@ -14598,7 +14674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>43916</v>
       </c>
@@ -14610,7 +14686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>43917</v>
       </c>
@@ -14622,7 +14698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>43918</v>
       </c>
@@ -14634,7 +14710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>43919</v>
       </c>
@@ -14646,7 +14722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>43920</v>
       </c>
@@ -14658,7 +14734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>43921</v>
       </c>
@@ -14670,18 +14746,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A101" s="30" t="s">
+    <row r="101" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A101" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>43922</v>
       </c>
@@ -14693,7 +14769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>43923</v>
       </c>
@@ -14705,7 +14781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>43924</v>
       </c>
@@ -14717,7 +14793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>43925</v>
       </c>
@@ -14729,7 +14805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>43926</v>
       </c>
@@ -14741,7 +14817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>43927</v>
       </c>
@@ -14753,7 +14829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>43928</v>
       </c>
@@ -14765,7 +14841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>43929</v>
       </c>
@@ -14777,7 +14853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>43930</v>
       </c>
@@ -14789,7 +14865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>43931</v>
       </c>
@@ -14801,7 +14877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>43932</v>
       </c>
@@ -14813,7 +14889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>43933</v>
       </c>
@@ -14825,7 +14901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>43934</v>
       </c>
@@ -14837,7 +14913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>43935</v>
       </c>
@@ -14849,7 +14925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>43936</v>
       </c>
@@ -14861,7 +14937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>43937</v>
       </c>
@@ -14873,7 +14949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>43938</v>
       </c>
@@ -14885,7 +14961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>43939</v>
       </c>
@@ -14897,7 +14973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>43940</v>
       </c>
@@ -14909,7 +14985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>43941</v>
       </c>
@@ -14921,7 +14997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>43942</v>
       </c>
@@ -14933,7 +15009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>43943</v>
       </c>
@@ -14945,7 +15021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>43944</v>
       </c>
@@ -14957,7 +15033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>43945</v>
       </c>
@@ -14969,7 +15045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>43946</v>
       </c>
@@ -14981,7 +15057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>43947</v>
       </c>
@@ -14993,7 +15069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>43948</v>
       </c>
@@ -15005,7 +15081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>43949</v>
       </c>
@@ -15017,7 +15093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>43950</v>
       </c>
@@ -15029,7 +15105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>43951</v>
       </c>
@@ -15041,7 +15117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="26"/>
       <c r="C132" s="26"/>
@@ -15049,18 +15125,18 @@
       <c r="E132" s="26"/>
       <c r="F132" s="27"/>
     </row>
-    <row r="133" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A133" s="30" t="s">
+    <row r="133" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A133" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="30"/>
-      <c r="G133" s="30"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="31"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="31"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>43952</v>
       </c>
@@ -15072,7 +15148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>43953</v>
       </c>
@@ -15084,7 +15160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>43954</v>
       </c>
@@ -15096,7 +15172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>43955</v>
       </c>
@@ -15108,7 +15184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>43956</v>
       </c>
@@ -15120,7 +15196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>43957</v>
       </c>
@@ -15132,7 +15208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>43958</v>
       </c>
@@ -15144,7 +15220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>43959</v>
       </c>
@@ -15156,7 +15232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>43960</v>
       </c>
@@ -15168,7 +15244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>43961</v>
       </c>
@@ -15180,7 +15256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>43962</v>
       </c>
@@ -15192,7 +15268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>43963</v>
       </c>
@@ -15204,7 +15280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>43964</v>
       </c>
@@ -15216,7 +15292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>43965</v>
       </c>
@@ -15228,7 +15304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>43966</v>
       </c>
@@ -15240,7 +15316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>43967</v>
       </c>
@@ -15252,7 +15328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>43968</v>
       </c>
@@ -15264,7 +15340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>43969</v>
       </c>
@@ -15276,7 +15352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>43970</v>
       </c>
@@ -15288,7 +15364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>43971</v>
       </c>
@@ -15300,7 +15376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>43972</v>
       </c>
@@ -15312,7 +15388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>43973</v>
       </c>
@@ -15324,7 +15400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>43974</v>
       </c>
@@ -15336,7 +15412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>43975</v>
       </c>
@@ -15348,7 +15424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>43976</v>
       </c>
@@ -15360,7 +15436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>43977</v>
       </c>
@@ -15372,7 +15448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>43978</v>
       </c>
@@ -15384,7 +15460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>43979</v>
       </c>
@@ -15396,7 +15472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>43980</v>
       </c>
@@ -15408,7 +15484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>43981</v>
       </c>
@@ -15420,7 +15496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>43982</v>
       </c>
@@ -15432,18 +15508,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A166" s="30" t="s">
+    <row r="166" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A166" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B166" s="30"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="30"/>
-      <c r="E166" s="30"/>
-      <c r="F166" s="30"/>
-      <c r="G166" s="30"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="31"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="31"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>43983</v>
       </c>
@@ -15455,7 +15531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>43984</v>
       </c>
@@ -15467,7 +15543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>43985</v>
       </c>
@@ -15479,7 +15555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>43986</v>
       </c>
@@ -15491,7 +15567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>43987</v>
       </c>
@@ -15503,7 +15579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>43988</v>
       </c>
@@ -15515,7 +15591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>43989</v>
       </c>
@@ -15527,7 +15603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>43990</v>
       </c>
@@ -15539,7 +15615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>43991</v>
       </c>
@@ -15551,7 +15627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>43992</v>
       </c>
@@ -15563,7 +15639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>43993</v>
       </c>
@@ -15575,7 +15651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>43994</v>
       </c>
@@ -15587,7 +15663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>43995</v>
       </c>
@@ -15599,7 +15675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>43996</v>
       </c>
@@ -15611,7 +15687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>43997</v>
       </c>
@@ -15623,7 +15699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>43998</v>
       </c>
@@ -15635,7 +15711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>43999</v>
       </c>
@@ -15647,7 +15723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>44000</v>
       </c>
@@ -15659,7 +15735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>44001</v>
       </c>
@@ -15671,7 +15747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>44002</v>
       </c>
@@ -15683,7 +15759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>44003</v>
       </c>
@@ -15695,7 +15771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>44004</v>
       </c>
@@ -15707,7 +15783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>44005</v>
       </c>
@@ -15719,7 +15795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>44006</v>
       </c>
@@ -15731,7 +15807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>44007</v>
       </c>
@@ -15743,7 +15819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>44008</v>
       </c>
@@ -15755,7 +15831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>44009</v>
       </c>
@@ -15767,7 +15843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>44010</v>
       </c>
@@ -15779,7 +15855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>44011</v>
       </c>
@@ -15791,7 +15867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>44012</v>
       </c>
@@ -15803,21 +15879,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
     </row>
-    <row r="198" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A198" s="30" t="s">
+    <row r="198" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A198" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B198" s="30"/>
-      <c r="C198" s="30"/>
-      <c r="D198" s="30"/>
-      <c r="E198" s="30"/>
-      <c r="F198" s="30"/>
-      <c r="G198" s="30"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B198" s="31"/>
+      <c r="C198" s="31"/>
+      <c r="D198" s="31"/>
+      <c r="E198" s="31"/>
+      <c r="F198" s="31"/>
+      <c r="G198" s="31"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>44013</v>
       </c>
@@ -15829,7 +15905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>44014</v>
       </c>
@@ -15841,7 +15917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>44015</v>
       </c>
@@ -15853,7 +15929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>44016</v>
       </c>
@@ -15865,7 +15941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>44017</v>
       </c>
@@ -15877,7 +15953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>44018</v>
       </c>
@@ -15889,7 +15965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>44019</v>
       </c>
@@ -15901,7 +15977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>44020</v>
       </c>
@@ -15913,7 +15989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>44021</v>
       </c>
@@ -15925,7 +16001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>44022</v>
       </c>
@@ -15937,7 +16013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>44023</v>
       </c>
@@ -15949,7 +16025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>44024</v>
       </c>
@@ -15961,7 +16037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>44025</v>
       </c>
@@ -15973,7 +16049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>44026</v>
       </c>
@@ -15985,7 +16061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>44027</v>
       </c>
@@ -15997,7 +16073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>44028</v>
       </c>
@@ -16009,7 +16085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>44029</v>
       </c>
@@ -16021,7 +16097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>44030</v>
       </c>
@@ -16033,7 +16109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>44031</v>
       </c>
@@ -16045,7 +16121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>44032</v>
       </c>
@@ -16057,7 +16133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>44033</v>
       </c>
@@ -16069,7 +16145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>44034</v>
       </c>
@@ -16081,7 +16157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>44035</v>
       </c>
@@ -16093,7 +16169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>44036</v>
       </c>
@@ -16105,7 +16181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>44037</v>
       </c>
@@ -16117,7 +16193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>44038</v>
       </c>
@@ -16129,7 +16205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>44039</v>
       </c>
@@ -16141,7 +16217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>44040</v>
       </c>
@@ -16153,7 +16229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>44041</v>
       </c>
@@ -16165,7 +16241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>44042</v>
       </c>
@@ -16177,7 +16253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>44043</v>
       </c>
